--- a/data/trans_orig/P41E_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB5DA66-7CCB-42DA-A8AB-03AEAA4F9661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C767E22F-8781-4D2A-B78D-98F9917BE341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{791BD66C-E480-40ED-B8B3-00C9CF8F29BC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C541B2F1-8BE2-409C-B617-221EBEA35531}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>5,36%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -104,670 +104,676 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>7,7%</t>
@@ -776,88 +782,82 @@
     <t>6,71%</t>
   </si>
   <si>
-    <t>8,56%</t>
+    <t>8,54%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
+    <t>3,64%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>22,45%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>47,43%</t>
@@ -866,25 +866,25 @@
     <t>44,59%</t>
   </si>
   <si>
-    <t>53,87%</t>
+    <t>53,13%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
   </si>
   <si>
     <t>48,01%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A223A9-BAE6-44F9-A398-DA11BDA61E45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF8579-C9E5-4D44-A242-37B283B340F2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1579,10 +1579,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -1591,13 +1591,13 @@
         <v>10919</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -1606,19 +1606,19 @@
         <v>18539</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>30</v>
@@ -1627,13 +1627,13 @@
         <v>26279</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -1642,13 +1642,13 @@
         <v>30556</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -1657,13 +1657,13 @@
         <v>56835</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,13 +1678,13 @@
         <v>45129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -1693,13 +1693,13 @@
         <v>50981</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>154</v>
@@ -1708,18 +1708,18 @@
         <v>96110</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1731,13 +1731,13 @@
         <v>36710</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -1746,13 +1746,13 @@
         <v>31739</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -1761,13 +1761,13 @@
         <v>68450</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1782,13 @@
         <v>11465</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -1797,13 +1797,13 @@
         <v>14384</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -1812,13 +1812,13 @@
         <v>25849</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,13 +1833,13 @@
         <v>34483</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>63</v>
@@ -1848,13 +1848,13 @@
         <v>36848</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>100</v>
@@ -1863,13 +1863,13 @@
         <v>71330</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,13 +1884,13 @@
         <v>93544</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -1899,13 +1899,13 @@
         <v>101728</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>274</v>
@@ -1914,19 +1914,19 @@
         <v>195273</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>136</v>
@@ -1935,13 +1935,13 @@
         <v>133466</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -1950,13 +1950,13 @@
         <v>110807</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>317</v>
@@ -1965,13 +1965,13 @@
         <v>244274</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +1986,13 @@
         <v>309669</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>495</v>
@@ -2001,13 +2001,13 @@
         <v>295506</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>838</v>
@@ -2016,18 +2016,18 @@
         <v>605175</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2039,13 +2039,13 @@
         <v>28759</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -2054,13 +2054,13 @@
         <v>38343</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -2069,7 +2069,7 @@
         <v>67102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>114</v>
@@ -2234,7 +2234,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>270</v>
@@ -2279,7 +2279,7 @@
         <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2294,13 @@
         <v>585415</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>741</v>
@@ -2309,13 +2309,13 @@
         <v>517307</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -2324,18 +2324,18 @@
         <v>1102722</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2347,13 +2347,13 @@
         <v>6560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2362,13 +2362,13 @@
         <v>6989</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2377,13 +2377,13 @@
         <v>13549</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2398,13 @@
         <v>8401</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2413,13 +2413,13 @@
         <v>2145</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -2428,13 +2428,13 @@
         <v>10545</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2449,13 @@
         <v>13975</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -2464,7 +2464,7 @@
         <v>20089</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>173</v>
@@ -2506,7 +2506,7 @@
         <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>165</v>
@@ -2515,13 +2515,13 @@
         <v>108628</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>287</v>
@@ -2530,19 +2530,19 @@
         <v>228392</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>85</v>
@@ -2551,13 +2551,13 @@
         <v>92508</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>158</v>
@@ -2566,13 +2566,13 @@
         <v>219759</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>243</v>
@@ -2581,13 +2581,13 @@
         <v>312267</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2602,13 @@
         <v>241208</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>365</v>
@@ -2617,13 +2617,13 @@
         <v>357610</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>611</v>
@@ -2632,18 +2632,18 @@
         <v>598818</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2655,10 +2655,10 @@
         <v>43572</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>110</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>198</v>
@@ -2670,7 +2670,7 @@
         <v>56189</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>199</v>
@@ -2850,7 +2850,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>197</v>
@@ -2910,13 +2910,13 @@
         <v>451680</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>705</v>
@@ -2925,13 +2925,13 @@
         <v>476458</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>1218</v>
@@ -2940,13 +2940,13 @@
         <v>928138</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,10 +2966,10 @@
         <v>240</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>234</v>
@@ -2978,13 +2978,13 @@
         <v>138596</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>392</v>
@@ -2993,13 +2993,13 @@
         <v>256617</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3014,13 @@
         <v>75886</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="H35" s="7">
         <v>100</v>
@@ -3029,13 +3029,13 @@
         <v>69621</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>195</v>
@@ -3044,13 +3044,13 @@
         <v>145507</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3065,13 @@
         <v>163493</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>295</v>
@@ -3080,13 +3080,13 @@
         <v>184966</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>490</v>
@@ -3095,13 +3095,13 @@
         <v>348459</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3116,13 @@
         <v>501157</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>751</v>
@@ -3131,13 +3131,13 @@
         <v>480008</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>270</v>
+        <v>136</v>
       </c>
       <c r="M37" s="7">
         <v>1284</v>
@@ -3158,7 +3158,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>718</v>
@@ -3218,13 +3218,13 @@
         <v>1633101</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>2404</v>
@@ -3233,13 +3233,13 @@
         <v>1697862</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>4103</v>
@@ -3248,13 +3248,13 @@
         <v>3330962</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P41E_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C767E22F-8781-4D2A-B78D-98F9917BE341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6022C464-D22A-47DD-A075-A5EDF3CC3722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C541B2F1-8BE2-409C-B617-221EBEA35531}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C9C4E5B-41C7-4E96-81EE-89A0D26E9BDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Totalmente en desacuerdo</t>
@@ -218,7 +218,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>11,85%</t>
@@ -356,7 +356,7 @@
     <t>44,67%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>4,91%</t>
@@ -494,7 +494,7 @@
     <t>61,51%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>2,72%</t>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF8579-C9E5-4D44-A242-37B283B340F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E46D40-7780-4BFB-A272-0EECE594F980}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41E_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6022C464-D22A-47DD-A075-A5EDF3CC3722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD3EC33E-6D41-436F-AE76-92693D034DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C9C4E5B-41C7-4E96-81EE-89A0D26E9BDC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA1F410A-D069-47C5-AB39-0AA54745FD69}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>5,36%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -104,28 +104,28 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
   </si>
   <si>
     <t>Ni de acuerdo ni en desacuerdo</t>
@@ -134,730 +134,730 @@
     <t>13,49%</t>
   </si>
   <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>11,53%</t>
   </si>
   <si>
     <t>30,69%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>28,27%</t>
   </si>
   <si>
-    <t>22,45%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>47,43%</t>
@@ -866,25 +866,25 @@
     <t>44,59%</t>
   </si>
   <si>
-    <t>53,13%</t>
+    <t>53,87%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
   </si>
   <si>
     <t>48,01%</t>
   </si>
   <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E46D40-7780-4BFB-A272-0EECE594F980}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7211433-DC21-4174-AF27-37FF357BD6B1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1579,10 +1579,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -1591,13 +1591,13 @@
         <v>10919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -1606,19 +1606,19 @@
         <v>18539</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>30</v>
@@ -1627,13 +1627,13 @@
         <v>26279</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>51</v>
@@ -1642,13 +1642,13 @@
         <v>30556</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>81</v>
@@ -1657,13 +1657,13 @@
         <v>56835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,13 +1678,13 @@
         <v>45129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -1693,13 +1693,13 @@
         <v>50981</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>154</v>
@@ -1708,18 +1708,18 @@
         <v>96110</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1731,13 +1731,13 @@
         <v>36710</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -1746,13 +1746,13 @@
         <v>31739</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -1761,13 +1761,13 @@
         <v>68450</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1782,13 @@
         <v>11465</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -1797,13 +1797,13 @@
         <v>14384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
@@ -1812,13 +1812,13 @@
         <v>25849</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,13 +1833,13 @@
         <v>34483</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>63</v>
@@ -1848,13 +1848,13 @@
         <v>36848</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>100</v>
@@ -1863,13 +1863,13 @@
         <v>71330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,13 +1884,13 @@
         <v>93544</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -1899,13 +1899,13 @@
         <v>101728</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>274</v>
@@ -1914,19 +1914,19 @@
         <v>195273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>136</v>
@@ -1935,13 +1935,13 @@
         <v>133466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>181</v>
@@ -1950,13 +1950,13 @@
         <v>110807</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>317</v>
@@ -1965,13 +1965,13 @@
         <v>244274</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +1986,13 @@
         <v>309669</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>495</v>
@@ -2001,13 +2001,13 @@
         <v>295506</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>838</v>
@@ -2016,18 +2016,18 @@
         <v>605175</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2039,13 +2039,13 @@
         <v>28759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -2054,13 +2054,13 @@
         <v>38343</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -2069,7 +2069,7 @@
         <v>67102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>114</v>
@@ -2234,7 +2234,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>270</v>
@@ -2279,7 +2279,7 @@
         <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2294,13 @@
         <v>585415</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>741</v>
@@ -2309,13 +2309,13 @@
         <v>517307</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -2324,18 +2324,18 @@
         <v>1102722</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2347,13 +2347,13 @@
         <v>6560</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2362,13 +2362,13 @@
         <v>6989</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2377,13 +2377,13 @@
         <v>13549</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2398,13 @@
         <v>8401</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2413,13 +2413,13 @@
         <v>2145</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -2428,13 +2428,13 @@
         <v>10545</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2449,13 @@
         <v>13975</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -2464,7 +2464,7 @@
         <v>20089</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>173</v>
@@ -2506,7 +2506,7 @@
         <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>165</v>
@@ -2515,13 +2515,13 @@
         <v>108628</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>287</v>
@@ -2530,19 +2530,19 @@
         <v>228392</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>85</v>
@@ -2551,13 +2551,13 @@
         <v>92508</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>158</v>
@@ -2566,13 +2566,13 @@
         <v>219759</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>243</v>
@@ -2581,13 +2581,13 @@
         <v>312267</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2602,13 @@
         <v>241208</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>365</v>
@@ -2617,13 +2617,13 @@
         <v>357610</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>611</v>
@@ -2632,18 +2632,18 @@
         <v>598818</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2655,10 +2655,10 @@
         <v>43572</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>198</v>
@@ -2670,7 +2670,7 @@
         <v>56189</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>199</v>
@@ -2850,7 +2850,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>197</v>
@@ -2910,13 +2910,13 @@
         <v>451680</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>705</v>
@@ -2925,13 +2925,13 @@
         <v>476458</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>1218</v>
@@ -2940,13 +2940,13 @@
         <v>928138</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,10 +2966,10 @@
         <v>240</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>234</v>
@@ -2978,13 +2978,13 @@
         <v>138596</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>392</v>
@@ -2993,13 +2993,13 @@
         <v>256617</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3014,13 @@
         <v>75886</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H35" s="7">
         <v>100</v>
@@ -3029,13 +3029,13 @@
         <v>69621</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M35" s="7">
         <v>195</v>
@@ -3044,13 +3044,13 @@
         <v>145507</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3065,13 @@
         <v>163493</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>295</v>
@@ -3080,13 +3080,13 @@
         <v>184966</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>490</v>
@@ -3095,13 +3095,13 @@
         <v>348459</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3116,13 @@
         <v>501157</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>751</v>
@@ -3131,13 +3131,13 @@
         <v>480008</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M37" s="7">
         <v>1284</v>
@@ -3158,7 +3158,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>718</v>
@@ -3218,13 +3218,13 @@
         <v>1633101</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>2404</v>
@@ -3233,13 +3233,13 @@
         <v>1697862</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>4103</v>
@@ -3248,13 +3248,13 @@
         <v>3330962</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
